--- a/data/nzd0552/nzd0552.xlsx
+++ b/data/nzd0552/nzd0552.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G425"/>
+  <dimension ref="A1:G431"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10926,6 +10926,168 @@
       <c r="G425" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:15:12+00:00</t>
+        </is>
+      </c>
+      <c r="B426" t="n">
+        <v>346.7745945945946</v>
+      </c>
+      <c r="C426" t="n">
+        <v>336.3317391304348</v>
+      </c>
+      <c r="D426" t="n">
+        <v>321.97</v>
+      </c>
+      <c r="E426" t="n">
+        <v>314.99</v>
+      </c>
+      <c r="F426" t="n">
+        <v>371.68</v>
+      </c>
+      <c r="G426" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:14:42+00:00</t>
+        </is>
+      </c>
+      <c r="B427" t="n">
+        <v>344.5267567567568</v>
+      </c>
+      <c r="C427" t="n">
+        <v>341.5873913043478</v>
+      </c>
+      <c r="D427" t="n">
+        <v>343.3311111111111</v>
+      </c>
+      <c r="E427" t="n">
+        <v>334.05</v>
+      </c>
+      <c r="F427" t="n">
+        <v>393.37</v>
+      </c>
+      <c r="G427" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:20:57+00:00</t>
+        </is>
+      </c>
+      <c r="B428" t="n">
+        <v>362.1740540540541</v>
+      </c>
+      <c r="C428" t="n">
+        <v>350.7795652173913</v>
+      </c>
+      <c r="D428" t="n">
+        <v>341.84</v>
+      </c>
+      <c r="E428" t="n">
+        <v>334.23</v>
+      </c>
+      <c r="F428" t="n">
+        <v>342.9342857142857</v>
+      </c>
+      <c r="G428" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-21 22:15:12+00:00</t>
+        </is>
+      </c>
+      <c r="B429" t="n">
+        <v>347.55</v>
+      </c>
+      <c r="C429" t="n">
+        <v>338.0173913043478</v>
+      </c>
+      <c r="D429" t="n">
+        <v>340.9522222222222</v>
+      </c>
+      <c r="E429" t="n">
+        <v>339.66</v>
+      </c>
+      <c r="F429" t="n">
+        <v>348.1114285714286</v>
+      </c>
+      <c r="G429" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-28 22:20:54+00:00</t>
+        </is>
+      </c>
+      <c r="B430" t="n">
+        <v>360.0513513513513</v>
+      </c>
+      <c r="C430" t="n">
+        <v>348.1191304347826</v>
+      </c>
+      <c r="D430" t="n">
+        <v>338.8711111111111</v>
+      </c>
+      <c r="E430" t="n">
+        <v>338.19</v>
+      </c>
+      <c r="F430" t="n">
+        <v>346.32</v>
+      </c>
+      <c r="G430" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-01 22:20:51+00:00</t>
+        </is>
+      </c>
+      <c r="B431" t="n">
+        <v>381.6297297297297</v>
+      </c>
+      <c r="C431" t="n">
+        <v>360.5830434782609</v>
+      </c>
+      <c r="D431" t="n">
+        <v>339.8922222222222</v>
+      </c>
+      <c r="E431" t="n">
+        <v>366.41</v>
+      </c>
+      <c r="F431" t="n">
+        <v>376.8771428571429</v>
+      </c>
+      <c r="G431" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -10940,7 +11102,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B497"/>
+  <dimension ref="A1:B503"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15918,6 +16080,66 @@
       </c>
       <c r="B497" t="n">
         <v>-1.03</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B498" t="n">
+        <v>-0.63</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B499" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B500" t="n">
+        <v>-0.36</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>2025-01-21 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B501" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>2025-01-28 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B502" t="n">
+        <v>-0.49</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>2025-03-01 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B503" t="n">
+        <v>-1.16</v>
       </c>
     </row>
   </sheetData>
@@ -16086,28 +16308,28 @@
         <v>0.2</v>
       </c>
       <c r="I2" t="n">
-        <v>-1.067830708762878</v>
+        <v>-0.895545799605636</v>
       </c>
       <c r="J2" t="n">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="K2" t="n">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02712871519653426</v>
+        <v>0.01960821115780265</v>
       </c>
       <c r="M2" t="n">
-        <v>37.965253343071</v>
+        <v>37.95667430393592</v>
       </c>
       <c r="N2" t="n">
-        <v>2221.060292268818</v>
+        <v>2220.591724080554</v>
       </c>
       <c r="O2" t="n">
-        <v>47.12812633946758</v>
+        <v>47.123154861284</v>
       </c>
       <c r="P2" t="n">
-        <v>337.8288033459193</v>
+        <v>336.1452637403457</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -16157,28 +16379,28 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>-1.804011894279911</v>
+        <v>-1.659668378725288</v>
       </c>
       <c r="J3" t="n">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="K3" t="n">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="L3" t="n">
-        <v>0.06718186536369397</v>
+        <v>0.0585355837164756</v>
       </c>
       <c r="M3" t="n">
-        <v>35.28925291818371</v>
+        <v>35.06107007278403</v>
       </c>
       <c r="N3" t="n">
-        <v>2475.6423545617</v>
+        <v>2465.382335436094</v>
       </c>
       <c r="O3" t="n">
-        <v>49.75582734275152</v>
+        <v>49.65261660210965</v>
       </c>
       <c r="P3" t="n">
-        <v>347.7244741850811</v>
+        <v>346.3024748100684</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -16234,28 +16456,28 @@
         <v>0.0589</v>
       </c>
       <c r="I4" t="n">
-        <v>-1.922917248506523</v>
+        <v>-1.81202259429027</v>
       </c>
       <c r="J4" t="n">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="K4" t="n">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1017162701226585</v>
+        <v>0.09313861820587743</v>
       </c>
       <c r="M4" t="n">
-        <v>27.9091373582975</v>
+        <v>27.65496143761264</v>
       </c>
       <c r="N4" t="n">
-        <v>1813.817699692333</v>
+        <v>1803.089763147442</v>
       </c>
       <c r="O4" t="n">
-        <v>42.58893870117372</v>
+        <v>42.46280446634963</v>
       </c>
       <c r="P4" t="n">
-        <v>351.8080049792642</v>
+        <v>350.7273661541133</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -16305,28 +16527,28 @@
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>-1.700456485872591</v>
+        <v>-1.588707429663784</v>
       </c>
       <c r="J5" t="n">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="K5" t="n">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="L5" t="n">
-        <v>0.09012787410503775</v>
+        <v>0.08094306917508809</v>
       </c>
       <c r="M5" t="n">
-        <v>26.56275355587398</v>
+        <v>26.33489012463275</v>
       </c>
       <c r="N5" t="n">
-        <v>1647.04864069081</v>
+        <v>1643.234582412858</v>
       </c>
       <c r="O5" t="n">
-        <v>40.58384704153625</v>
+        <v>40.53682995021759</v>
       </c>
       <c r="P5" t="n">
-        <v>345.6639099309023</v>
+        <v>344.5973893473624</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -16382,28 +16604,28 @@
         <v>0.0407</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.08524905618195722</v>
+        <v>-0.1059760029215475</v>
       </c>
       <c r="J6" t="n">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="K6" t="n">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0008469190944987437</v>
+        <v>0.001337542334403863</v>
       </c>
       <c r="M6" t="n">
-        <v>17.73101511125396</v>
+        <v>17.73806001996589</v>
       </c>
       <c r="N6" t="n">
-        <v>485.1799108471656</v>
+        <v>483.444939569148</v>
       </c>
       <c r="O6" t="n">
-        <v>22.02679983218546</v>
+        <v>21.98738137134907</v>
       </c>
       <c r="P6" t="n">
-        <v>371.7037839423031</v>
+        <v>371.8971805966592</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -16440,7 +16662,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G425"/>
+  <dimension ref="A1:G431"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30189,6 +30411,228 @@
         </is>
       </c>
     </row>
+    <row r="426">
+      <c r="A426" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:15:12+00:00</t>
+        </is>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>-46.60363751452581,169.4206450822146</t>
+        </is>
+      </c>
+      <c r="C426" t="inlineStr">
+        <is>
+          <t>-46.603603966697634,169.41974198081172</t>
+        </is>
+      </c>
+      <c r="D426" t="inlineStr">
+        <is>
+          <t>-46.60353526172542,169.418835483901</t>
+        </is>
+      </c>
+      <c r="E426" t="inlineStr">
+        <is>
+          <t>-46.603532779690624,169.41793538909658</t>
+        </is>
+      </c>
+      <c r="F426" t="inlineStr">
+        <is>
+          <t>-46.60410149356513,169.41709048449042</t>
+        </is>
+      </c>
+      <c r="G426" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:14:42+00:00</t>
+        </is>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>-46.603617348738624,169.4206431328882</t>
+        </is>
+      </c>
+      <c r="C427" t="inlineStr">
+        <is>
+          <t>-46.60365111617067,169.41974653797692</t>
+        </is>
+      </c>
+      <c r="D427" t="inlineStr">
+        <is>
+          <t>-46.60372689639953,169.418854003884</t>
+        </is>
+      </c>
+      <c r="E427" t="inlineStr">
+        <is>
+          <t>-46.60370377066066,169.41795191206396</t>
+        </is>
+      </c>
+      <c r="F427" t="inlineStr">
+        <is>
+          <t>-46.60429607877462,169.41710928543682</t>
+        </is>
+      </c>
+      <c r="G427" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:20:57+00:00</t>
+        </is>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>-46.603775666048094,169.420658436663</t>
+        </is>
+      </c>
+      <c r="C428" t="inlineStr">
+        <is>
+          <t>-46.6037335809416,169.4197545085052</t>
+        </is>
+      </c>
+      <c r="D428" t="inlineStr">
+        <is>
+          <t>-46.60371351935246,169.41885271109473</t>
+        </is>
+      </c>
+      <c r="E428" t="inlineStr">
+        <is>
+          <t>-46.60370538547569,169.4179520681049</t>
+        </is>
+      </c>
+      <c r="F428" t="inlineStr">
+        <is>
+          <t>-46.60384361016302,169.41706556777783</t>
+        </is>
+      </c>
+      <c r="G428" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-21 22:15:12+00:00</t>
+        </is>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>-46.60364447083738,169.42064575464693</t>
+        </is>
+      </c>
+      <c r="C429" t="inlineStr">
+        <is>
+          <t>-46.60361908900961,169.41974344243667</t>
+        </is>
+      </c>
+      <c r="D429" t="inlineStr">
+        <is>
+          <t>-46.603705554925774,169.41885194139402</t>
+        </is>
+      </c>
+      <c r="E429" t="inlineStr">
+        <is>
+          <t>-46.60375409906195,169.4179567753436</t>
+        </is>
+      </c>
+      <c r="F429" t="inlineStr">
+        <is>
+          <t>-46.603890055320626,169.4170700553</t>
+        </is>
+      </c>
+      <c r="G429" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-28 22:20:54+00:00</t>
+        </is>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>-46.603756622872694,169.42065659584728</t>
+        </is>
+      </c>
+      <c r="C430" t="inlineStr">
+        <is>
+          <t>-46.60370971366643,169.41975220164213</t>
+        </is>
+      </c>
+      <c r="D430" t="inlineStr">
+        <is>
+          <t>-46.60368688487419,169.41885013707744</t>
+        </is>
+      </c>
+      <c r="E430" t="inlineStr">
+        <is>
+          <t>-46.60374091140603,169.4179555010077</t>
+        </is>
+      </c>
+      <c r="F430" t="inlineStr">
+        <is>
+          <t>-46.603873984065785,169.41706850249784</t>
+        </is>
+      </c>
+      <c r="G430" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-01 22:20:51+00:00</t>
+        </is>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>-46.603950206665374,169.4206753087396</t>
+        </is>
+      </c>
+      <c r="C431" t="inlineStr">
+        <is>
+          <t>-46.6038215298412,169.41976300911375</t>
+        </is>
+      </c>
+      <c r="D431" t="inlineStr">
+        <is>
+          <t>-46.603696045460104,169.41885102237734</t>
+        </is>
+      </c>
+      <c r="E431" t="inlineStr">
+        <is>
+          <t>-46.60399407851127,169.41797996486508</t>
+        </is>
+      </c>
+      <c r="F431" t="inlineStr">
+        <is>
+          <t>-46.60414811814515,169.41709498937834</t>
+        </is>
+      </c>
+      <c r="G431" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0552/nzd0552.xlsx
+++ b/data/nzd0552/nzd0552.xlsx
@@ -16153,7 +16153,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W6"/>
+  <dimension ref="A1:X6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16244,35 +16244,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -16331,27 +16336,28 @@
       <c r="P2" t="n">
         <v>336.1452637403457</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (169.42034437099647 -46.6005265321003, 169.42110265509922 -46.60837081688289)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>169.4203443709965</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-46.6005265321003</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>169.4211026550992</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-46.60837081688289</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>169.4207235130478</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-46.60444867449159</v>
       </c>
     </row>
@@ -16402,27 +16408,28 @@
       <c r="P3" t="n">
         <v>346.3024748100684</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (169.41945035972807 -46.60058666898842, 169.420208554949 -46.60843095172094)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>169.4194503597281</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-46.60058666898842</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>169.420208554949</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-46.60843095172094</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>169.4198294573386</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-46.60450881035468</v>
       </c>
     </row>
@@ -16479,27 +16486,28 @@
       <c r="P4" t="n">
         <v>350.7273661541133</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (169.4185563484598 -46.60064680581024, 169.41931445479864 -46.60849108649137)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>169.4185563484598</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-46.60064680581024</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>169.4193144547986</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-46.60849108649137</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>169.4189354016292</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-46.60456894615081</v>
       </c>
     </row>
@@ -16550,27 +16558,28 @@
       <c r="P5" t="n">
         <v>344.5973893473624</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (169.41766233719176 -46.600706942565765, 169.41842035464785 -46.60855122119416)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>169.4176623371918</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-46.60070694256576</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>169.4184203546478</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-46.60855122119416</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>169.4180413459198</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-46.60462908187996</v>
       </c>
     </row>
@@ -16627,27 +16636,28 @@
       <c r="P6" t="n">
         <v>371.8971805966592</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (169.41676832592387 -46.60076707925495, 169.41752625449672 -46.608611355829346)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>169.4167683259239</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-46.60076707925495</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>169.4175262544967</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-46.60861135582935</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>169.4171472902103</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-46.60468921754214</v>
       </c>
     </row>

--- a/data/nzd0552/nzd0552.xlsx
+++ b/data/nzd0552/nzd0552.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G431"/>
+  <dimension ref="A1:G435"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11086,6 +11086,112 @@
         <v>376.8771428571429</v>
       </c>
       <c r="G431" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:20:38+00:00</t>
+        </is>
+      </c>
+      <c r="B432" t="n">
+        <v>347.7224324324325</v>
+      </c>
+      <c r="C432" t="n">
+        <v>339.0630434782609</v>
+      </c>
+      <c r="D432" t="n">
+        <v>351.81</v>
+      </c>
+      <c r="E432" t="n">
+        <v>352.13</v>
+      </c>
+      <c r="F432" t="n">
+        <v>372.3871428571428</v>
+      </c>
+      <c r="G432" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-03 22:14:16+00:00</t>
+        </is>
+      </c>
+      <c r="B433" t="n">
+        <v>331.5624324324324</v>
+      </c>
+      <c r="C433" t="n">
+        <v>328.395652173913</v>
+      </c>
+      <c r="D433" t="n">
+        <v>329.6877777777778</v>
+      </c>
+      <c r="E433" t="n">
+        <v>332.91</v>
+      </c>
+      <c r="F433" t="n">
+        <v>378.6457142857143</v>
+      </c>
+      <c r="G433" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-10 22:20:22+00:00</t>
+        </is>
+      </c>
+      <c r="B434" t="n">
+        <v>348.2891891891892</v>
+      </c>
+      <c r="C434" t="n">
+        <v>349.145652173913</v>
+      </c>
+      <c r="D434" t="n">
+        <v>348.0066666666667</v>
+      </c>
+      <c r="E434" t="n">
+        <v>340.93</v>
+      </c>
+      <c r="F434" t="n">
+        <v>359.4542857142857</v>
+      </c>
+      <c r="G434" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:14:29+00:00</t>
+        </is>
+      </c>
+      <c r="B435" t="n">
+        <v>358.9635135135135</v>
+      </c>
+      <c r="C435" t="n">
+        <v>357.49</v>
+      </c>
+      <c r="D435" t="n">
+        <v>345.9277777777777</v>
+      </c>
+      <c r="E435" t="n">
+        <v>346.6</v>
+      </c>
+      <c r="F435" t="inlineStr"/>
+      <c r="G435" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -11102,7 +11208,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B503"/>
+  <dimension ref="A1:B507"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16140,6 +16246,46 @@
       </c>
       <c r="B503" t="n">
         <v>-1.16</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B504" t="n">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>2025-04-03 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B505" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>2025-04-10 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B506" t="n">
+        <v>-0.15</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B507" t="n">
+        <v>-0.46</v>
       </c>
     </row>
   </sheetData>
@@ -16313,28 +16459,28 @@
         <v>0.2</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.895545799605636</v>
+        <v>-0.8145394841422521</v>
       </c>
       <c r="J2" t="n">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="K2" t="n">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01960821115780265</v>
+        <v>0.01657792294752347</v>
       </c>
       <c r="M2" t="n">
-        <v>37.95667430393592</v>
+        <v>37.8181513718174</v>
       </c>
       <c r="N2" t="n">
-        <v>2220.591724080554</v>
+        <v>2206.782636599611</v>
       </c>
       <c r="O2" t="n">
-        <v>47.123154861284</v>
+        <v>46.97640510511219</v>
       </c>
       <c r="P2" t="n">
-        <v>336.1452637403457</v>
+        <v>335.3458254669504</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -16385,28 +16531,28 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>-1.659668378725288</v>
+        <v>-1.574104082968244</v>
       </c>
       <c r="J3" t="n">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="K3" t="n">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0585355837164756</v>
+        <v>0.05368314697781973</v>
       </c>
       <c r="M3" t="n">
-        <v>35.06107007278403</v>
+        <v>34.88358684286224</v>
       </c>
       <c r="N3" t="n">
-        <v>2465.382335436094</v>
+        <v>2455.567784312413</v>
       </c>
       <c r="O3" t="n">
-        <v>49.65261660210965</v>
+        <v>49.5536858801887</v>
       </c>
       <c r="P3" t="n">
-        <v>346.3024748100684</v>
+        <v>345.4504435474415</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -16463,28 +16609,28 @@
         <v>0.0589</v>
       </c>
       <c r="I4" t="n">
-        <v>-1.81202259429027</v>
+        <v>-1.729414433921405</v>
       </c>
       <c r="J4" t="n">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="K4" t="n">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="L4" t="n">
-        <v>0.09313861820587743</v>
+        <v>0.08644533523742126</v>
       </c>
       <c r="M4" t="n">
-        <v>27.65496143761264</v>
+        <v>27.51063828695314</v>
       </c>
       <c r="N4" t="n">
-        <v>1803.089763147442</v>
+        <v>1800.531436284123</v>
       </c>
       <c r="O4" t="n">
-        <v>42.46280446634963</v>
+        <v>42.43266944565382</v>
       </c>
       <c r="P4" t="n">
-        <v>350.7273661541133</v>
+        <v>349.9138485124789</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -16535,28 +16681,28 @@
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>-1.588707429663784</v>
+        <v>-1.507718290165506</v>
       </c>
       <c r="J5" t="n">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="K5" t="n">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="L5" t="n">
-        <v>0.08094306917508809</v>
+        <v>0.07425967643822784</v>
       </c>
       <c r="M5" t="n">
-        <v>26.33489012463275</v>
+        <v>26.21854092794792</v>
       </c>
       <c r="N5" t="n">
-        <v>1643.234582412858</v>
+        <v>1642.050978038064</v>
       </c>
       <c r="O5" t="n">
-        <v>40.53682995021759</v>
+        <v>40.52222819685591</v>
       </c>
       <c r="P5" t="n">
-        <v>344.5973893473624</v>
+        <v>343.8172803246246</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -16613,28 +16759,28 @@
         <v>0.0407</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.1059760029215475</v>
+        <v>-0.1044051183271916</v>
       </c>
       <c r="J6" t="n">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="K6" t="n">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="L6" t="n">
-        <v>0.001337542334403863</v>
+        <v>0.001320048984775779</v>
       </c>
       <c r="M6" t="n">
-        <v>17.73806001996589</v>
+        <v>17.64739032171672</v>
       </c>
       <c r="N6" t="n">
-        <v>483.444939569148</v>
+        <v>479.7936987627792</v>
       </c>
       <c r="O6" t="n">
-        <v>21.98738137134907</v>
+        <v>21.90419363416009</v>
       </c>
       <c r="P6" t="n">
-        <v>371.8971805966592</v>
+        <v>371.8824862363304</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -16672,7 +16818,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G431"/>
+  <dimension ref="A1:G435"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30643,6 +30789,150 @@
         </is>
       </c>
     </row>
+    <row r="432">
+      <c r="A432" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:20:38+00:00</t>
+        </is>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>-46.603646017762024,169.4206459041805</t>
+        </is>
+      </c>
+      <c r="C432" t="inlineStr">
+        <is>
+          <t>-46.603628469757695,169.4197443491194</t>
+        </is>
+      </c>
+      <c r="D432" t="inlineStr">
+        <is>
+          <t>-46.6038029621563,169.41886135506613</t>
+        </is>
+      </c>
+      <c r="E432" t="inlineStr">
+        <is>
+          <t>-46.603865969856585,169.4179675855439</t>
+        </is>
+      </c>
+      <c r="F432" t="inlineStr">
+        <is>
+          <t>-46.604107837481344,169.41709109744215</t>
+        </is>
+      </c>
+      <c r="G432" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-03 22:14:16+00:00</t>
+        </is>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>-46.6035010432814,169.42063189023744</t>
+        </is>
+      </c>
+      <c r="C433" t="inlineStr">
+        <is>
+          <t>-46.60353277052475,169.41973509945757</t>
+        </is>
+      </c>
+      <c r="D433" t="inlineStr">
+        <is>
+          <t>-46.60360449940846,169.41884217516758</t>
+        </is>
+      </c>
+      <c r="E433" t="inlineStr">
+        <is>
+          <t>-46.60369354349885,169.41795092380468</t>
+        </is>
+      </c>
+      <c r="F433" t="inlineStr">
+        <is>
+          <t>-46.604163984343586,169.41709652237878</t>
+        </is>
+      </c>
+      <c r="G433" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-10 22:20:22+00:00</t>
+        </is>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>-46.60365110224627,169.4206463956726</t>
+        </is>
+      </c>
+      <c r="C434" t="inlineStr">
+        <is>
+          <t>-46.60371892279157,169.41975309173898</t>
+        </is>
+      </c>
+      <c r="D434" t="inlineStr">
+        <is>
+          <t>-46.60376884171537,169.4188580575809</t>
+        </is>
+      </c>
+      <c r="E434" t="inlineStr">
+        <is>
+          <t>-46.603765492478956,169.41795787630085</t>
+        </is>
+      </c>
+      <c r="F434" t="inlineStr">
+        <is>
+          <t>-46.60399181430187,169.417079887252</t>
+        </is>
+      </c>
+      <c r="G434" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:14:29+00:00</t>
+        </is>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>-46.60374686366959,169.42065565247057</t>
+        </is>
+      </c>
+      <c r="C435" t="inlineStr">
+        <is>
+          <t>-46.603793781550024,169.4197603271297</t>
+        </is>
+      </c>
+      <c r="D435" t="inlineStr">
+        <is>
+          <t>-46.60375019159992,169.41885625518805</t>
+        </is>
+      </c>
+      <c r="E435" t="inlineStr">
+        <is>
+          <t>-46.60381635915154,169.417962791602</t>
+        </is>
+      </c>
+      <c r="F435" t="inlineStr"/>
+      <c r="G435" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0552/nzd0552.xlsx
+++ b/data/nzd0552/nzd0552.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G435"/>
+  <dimension ref="A1:G436"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11192,6 +11192,33 @@
       </c>
       <c r="F435" t="inlineStr"/>
       <c r="G435" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-20 22:20:18+00:00</t>
+        </is>
+      </c>
+      <c r="B436" t="n">
+        <v>327.1167567567568</v>
+      </c>
+      <c r="C436" t="n">
+        <v>318.5347826086957</v>
+      </c>
+      <c r="D436" t="n">
+        <v>333.3533333333333</v>
+      </c>
+      <c r="E436" t="n">
+        <v>338.52</v>
+      </c>
+      <c r="F436" t="n">
+        <v>374.1114285714286</v>
+      </c>
+      <c r="G436" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -11208,7 +11235,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B507"/>
+  <dimension ref="A1:B508"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16286,6 +16313,16 @@
       </c>
       <c r="B507" t="n">
         <v>-0.46</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>2025-05-20 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B508" t="n">
+        <v>0.51</v>
       </c>
     </row>
   </sheetData>
@@ -16459,28 +16496,28 @@
         <v>0.2</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.8145394841422521</v>
+        <v>-0.8067909528155325</v>
       </c>
       <c r="J2" t="n">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="K2" t="n">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01657792294752347</v>
+        <v>0.01636760649601465</v>
       </c>
       <c r="M2" t="n">
-        <v>37.8181513718174</v>
+        <v>37.72864250432512</v>
       </c>
       <c r="N2" t="n">
-        <v>2206.782636599611</v>
+        <v>2200.075284105964</v>
       </c>
       <c r="O2" t="n">
-        <v>46.97640510511219</v>
+        <v>46.90496012263483</v>
       </c>
       <c r="P2" t="n">
-        <v>335.3458254669504</v>
+        <v>335.2688181191408</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -16531,28 +16568,28 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>-1.574104082968244</v>
+        <v>-1.566736708633261</v>
       </c>
       <c r="J3" t="n">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="K3" t="n">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L3" t="n">
-        <v>0.05368314697781973</v>
+        <v>0.05347734784953839</v>
       </c>
       <c r="M3" t="n">
-        <v>34.88358684286224</v>
+        <v>34.80015192910026</v>
       </c>
       <c r="N3" t="n">
-        <v>2455.567784312413</v>
+        <v>2448.787545232706</v>
       </c>
       <c r="O3" t="n">
-        <v>49.5536858801887</v>
+        <v>49.4852255247231</v>
       </c>
       <c r="P3" t="n">
-        <v>345.4504435474415</v>
+        <v>345.3765565286575</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -16609,28 +16646,28 @@
         <v>0.0589</v>
       </c>
       <c r="I4" t="n">
-        <v>-1.729414433921405</v>
+        <v>-1.714729087028943</v>
       </c>
       <c r="J4" t="n">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="K4" t="n">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L4" t="n">
-        <v>0.08644533523742126</v>
+        <v>0.08543266056063137</v>
       </c>
       <c r="M4" t="n">
-        <v>27.51063828695314</v>
+        <v>27.46196455973188</v>
       </c>
       <c r="N4" t="n">
-        <v>1800.531436284123</v>
+        <v>1797.546403155913</v>
       </c>
       <c r="O4" t="n">
-        <v>42.43266944565382</v>
+        <v>42.39748109446967</v>
       </c>
       <c r="P4" t="n">
-        <v>349.9138485124789</v>
+        <v>349.7681266163218</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -16681,28 +16718,28 @@
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>-1.507718290165506</v>
+        <v>-1.490333139808218</v>
       </c>
       <c r="J5" t="n">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="K5" t="n">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="L5" t="n">
-        <v>0.07425967643822784</v>
+        <v>0.07292039258666816</v>
       </c>
       <c r="M5" t="n">
-        <v>26.21854092794792</v>
+        <v>26.18435984611135</v>
       </c>
       <c r="N5" t="n">
-        <v>1642.050978038064</v>
+        <v>1640.54638374416</v>
       </c>
       <c r="O5" t="n">
-        <v>40.52222819685591</v>
+        <v>40.5036588932921</v>
       </c>
       <c r="P5" t="n">
-        <v>343.8172803246246</v>
+        <v>343.6485504686071</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -16759,28 +16796,28 @@
         <v>0.0407</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.1044051183271916</v>
+        <v>-0.101734273181596</v>
       </c>
       <c r="J6" t="n">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="K6" t="n">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="L6" t="n">
-        <v>0.001320048984775779</v>
+        <v>0.001260775208003828</v>
       </c>
       <c r="M6" t="n">
-        <v>17.64739032171672</v>
+        <v>17.60863843770223</v>
       </c>
       <c r="N6" t="n">
-        <v>479.7936987627792</v>
+        <v>478.4724843921016</v>
       </c>
       <c r="O6" t="n">
-        <v>21.90419363416009</v>
+        <v>21.8740139067365</v>
       </c>
       <c r="P6" t="n">
-        <v>371.8824862363304</v>
+        <v>371.8571495083683</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -16818,7 +16855,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G435"/>
+  <dimension ref="A1:G436"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30933,6 +30970,43 @@
         </is>
       </c>
     </row>
+    <row r="436">
+      <c r="A436" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-20 22:20:18+00:00</t>
+        </is>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>-46.60346116026598,169.4206280349591</t>
+        </is>
+      </c>
+      <c r="C436" t="inlineStr">
+        <is>
+          <t>-46.603444306753495,169.4197265491484</t>
+        </is>
+      </c>
+      <c r="D436" t="inlineStr">
+        <is>
+          <t>-46.60363738381889,169.4188453531862</t>
+        </is>
+      </c>
+      <c r="E436" t="inlineStr">
+        <is>
+          <t>-46.603743871900214,169.41795578708306</t>
+        </is>
+      </c>
+      <c r="F436" t="inlineStr">
+        <is>
+          <t>-46.604123306384075,169.41709259205413</t>
+        </is>
+      </c>
+      <c r="G436" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0552/nzd0552.xlsx
+++ b/data/nzd0552/nzd0552.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G436"/>
+  <dimension ref="A1:G437"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11219,6 +11219,25 @@
         <v>374.1114285714286</v>
       </c>
       <c r="G436" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-14 22:14:10+00:00</t>
+        </is>
+      </c>
+      <c r="B437" t="inlineStr"/>
+      <c r="C437" t="inlineStr"/>
+      <c r="D437" t="inlineStr"/>
+      <c r="E437" t="inlineStr"/>
+      <c r="F437" t="n">
+        <v>372.0042857142857</v>
+      </c>
+      <c r="G437" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -11235,7 +11254,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B508"/>
+  <dimension ref="A1:B509"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16323,6 +16342,16 @@
       </c>
       <c r="B508" t="n">
         <v>0.51</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>2025-06-14 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B509" t="n">
+        <v>-0.64</v>
       </c>
     </row>
   </sheetData>
@@ -16499,7 +16528,7 @@
         <v>-0.8067909528155325</v>
       </c>
       <c r="J2" t="n">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="K2" t="n">
         <v>305</v>
@@ -16571,7 +16600,7 @@
         <v>-1.566736708633261</v>
       </c>
       <c r="J3" t="n">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="K3" t="n">
         <v>335</v>
@@ -16649,7 +16678,7 @@
         <v>-1.714729087028943</v>
       </c>
       <c r="J4" t="n">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="K4" t="n">
         <v>343</v>
@@ -16721,7 +16750,7 @@
         <v>-1.490333139808218</v>
       </c>
       <c r="J5" t="n">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="K5" t="n">
         <v>350</v>
@@ -16796,28 +16825,28 @@
         <v>0.0407</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.101734273181596</v>
+        <v>-0.1002315015583014</v>
       </c>
       <c r="J6" t="n">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="K6" t="n">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="L6" t="n">
-        <v>0.001260775208003828</v>
+        <v>0.001231119316803531</v>
       </c>
       <c r="M6" t="n">
-        <v>17.60863843770223</v>
+        <v>17.5646754692502</v>
       </c>
       <c r="N6" t="n">
-        <v>478.4724843921016</v>
+        <v>477.1116682077033</v>
       </c>
       <c r="O6" t="n">
-        <v>21.8740139067365</v>
+        <v>21.84288598623596</v>
       </c>
       <c r="P6" t="n">
-        <v>371.8571495083683</v>
+        <v>371.8428437032925</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -16855,7 +16884,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G436"/>
+  <dimension ref="A1:G437"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17618,7 +17647,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>-46.60389546784191,169.42067001736925</t>
+          <t>-46.6038954678419,169.42067001736925</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -30218,7 +30247,7 @@
       </c>
       <c r="D414" t="inlineStr">
         <is>
-          <t>-46.603676149345304,169.41884909957173</t>
+          <t>-46.60367614934531,169.41884909957173</t>
         </is>
       </c>
       <c r="E414" t="inlineStr">
@@ -31002,6 +31031,27 @@
         </is>
       </c>
       <c r="G436" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-14 22:14:10+00:00</t>
+        </is>
+      </c>
+      <c r="B437" t="inlineStr"/>
+      <c r="C437" t="inlineStr"/>
+      <c r="D437" t="inlineStr"/>
+      <c r="E437" t="inlineStr"/>
+      <c r="F437" t="inlineStr">
+        <is>
+          <t>-46.60410440279539,169.41709076558138</t>
+        </is>
+      </c>
+      <c r="G437" t="inlineStr">
         <is>
           <t>L9</t>
         </is>

--- a/data/nzd0552/nzd0552.xlsx
+++ b/data/nzd0552/nzd0552.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G437"/>
+  <dimension ref="A1:G441"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11238,6 +11238,98 @@
         <v>372.0042857142857</v>
       </c>
       <c r="G437" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-29 22:20:32+00:00</t>
+        </is>
+      </c>
+      <c r="B438" t="inlineStr"/>
+      <c r="C438" t="inlineStr"/>
+      <c r="D438" t="inlineStr"/>
+      <c r="E438" t="inlineStr"/>
+      <c r="F438" t="n">
+        <v>361.8571428571428</v>
+      </c>
+      <c r="G438" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-07 22:20:30+00:00</t>
+        </is>
+      </c>
+      <c r="B439" t="inlineStr"/>
+      <c r="C439" t="inlineStr"/>
+      <c r="D439" t="n">
+        <v>347.0455555555556</v>
+      </c>
+      <c r="E439" t="n">
+        <v>350.19</v>
+      </c>
+      <c r="F439" t="n">
+        <v>382.8628571428572</v>
+      </c>
+      <c r="G439" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-16 22:14:24+00:00</t>
+        </is>
+      </c>
+      <c r="B440" t="inlineStr"/>
+      <c r="C440" t="n">
+        <v>316.9947826086956</v>
+      </c>
+      <c r="D440" t="n">
+        <v>337.3711111111111</v>
+      </c>
+      <c r="E440" t="n">
+        <v>345.54</v>
+      </c>
+      <c r="F440" t="n">
+        <v>371.6485714285715</v>
+      </c>
+      <c r="G440" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:20:39+00:00</t>
+        </is>
+      </c>
+      <c r="B441" t="n">
+        <v>348.2827027027027</v>
+      </c>
+      <c r="C441" t="inlineStr"/>
+      <c r="D441" t="n">
+        <v>362.4366666666667</v>
+      </c>
+      <c r="E441" t="n">
+        <v>374.16</v>
+      </c>
+      <c r="F441" t="n">
+        <v>397.5028571428572</v>
+      </c>
+      <c r="G441" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -11254,7 +11346,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B509"/>
+  <dimension ref="A1:B513"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16352,6 +16444,46 @@
       </c>
       <c r="B509" t="n">
         <v>-0.64</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>2025-06-29 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B510" t="n">
+        <v>-0.46</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>2025-07-07 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B511" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>2025-07-16 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B512" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B513" t="n">
+        <v>-0.24</v>
       </c>
     </row>
   </sheetData>
@@ -16525,28 +16657,28 @@
         <v>0.2</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.8067909528155325</v>
+        <v>-0.7860268859277481</v>
       </c>
       <c r="J2" t="n">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="K2" t="n">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01636760649601465</v>
+        <v>0.01562265348351377</v>
       </c>
       <c r="M2" t="n">
-        <v>37.72864250432512</v>
+        <v>37.69681877768644</v>
       </c>
       <c r="N2" t="n">
-        <v>2200.075284105964</v>
+        <v>2196.612511227339</v>
       </c>
       <c r="O2" t="n">
-        <v>46.90496012263483</v>
+        <v>46.86803293533173</v>
       </c>
       <c r="P2" t="n">
-        <v>335.2688181191408</v>
+        <v>335.0606060864501</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -16597,28 +16729,28 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>-1.566736708633261</v>
+        <v>-1.560088907997569</v>
       </c>
       <c r="J3" t="n">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="K3" t="n">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="L3" t="n">
-        <v>0.05347734784953839</v>
+        <v>0.05332415318213124</v>
       </c>
       <c r="M3" t="n">
-        <v>34.80015192910026</v>
+        <v>34.71487914098949</v>
       </c>
       <c r="N3" t="n">
-        <v>2448.787545232706</v>
+        <v>2441.939970494551</v>
       </c>
       <c r="O3" t="n">
-        <v>49.4852255247231</v>
+        <v>49.41598901665888</v>
       </c>
       <c r="P3" t="n">
-        <v>345.3765565286575</v>
+        <v>345.3093332009686</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -16675,28 +16807,28 @@
         <v>0.0589</v>
       </c>
       <c r="I4" t="n">
-        <v>-1.714729087028943</v>
+        <v>-1.646749613023114</v>
       </c>
       <c r="J4" t="n">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="K4" t="n">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="L4" t="n">
-        <v>0.08543266056063137</v>
+        <v>0.07982436356190825</v>
       </c>
       <c r="M4" t="n">
-        <v>27.46196455973188</v>
+        <v>27.36489128558372</v>
       </c>
       <c r="N4" t="n">
-        <v>1797.546403155913</v>
+        <v>1798.972089525875</v>
       </c>
       <c r="O4" t="n">
-        <v>42.39748109446967</v>
+        <v>42.41429110012184</v>
       </c>
       <c r="P4" t="n">
-        <v>349.7681266163218</v>
+        <v>349.0879009487966</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -16747,28 +16879,28 @@
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>-1.490333139808218</v>
+        <v>-1.410913363579829</v>
       </c>
       <c r="J5" t="n">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="K5" t="n">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="L5" t="n">
-        <v>0.07292039258666816</v>
+        <v>0.06599580782175563</v>
       </c>
       <c r="M5" t="n">
-        <v>26.18435984611135</v>
+        <v>26.15106918321028</v>
       </c>
       <c r="N5" t="n">
-        <v>1640.54638374416</v>
+        <v>1650.009964712527</v>
       </c>
       <c r="O5" t="n">
-        <v>40.5036588932921</v>
+        <v>40.62031468012683</v>
       </c>
       <c r="P5" t="n">
-        <v>343.6485504686071</v>
+        <v>342.8713043419863</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -16825,28 +16957,28 @@
         <v>0.0407</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.1002315015583014</v>
+        <v>-0.08076076484713311</v>
       </c>
       <c r="J6" t="n">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="K6" t="n">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="L6" t="n">
-        <v>0.001231119316803531</v>
+        <v>0.0008135572329566187</v>
       </c>
       <c r="M6" t="n">
-        <v>17.5646754692502</v>
+        <v>17.49579678780731</v>
       </c>
       <c r="N6" t="n">
-        <v>477.1116682077033</v>
+        <v>474.6093554010257</v>
       </c>
       <c r="O6" t="n">
-        <v>21.84288598623596</v>
+        <v>21.78553087260041</v>
       </c>
       <c r="P6" t="n">
-        <v>371.8428437032925</v>
+        <v>371.6565185399318</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -16884,7 +17016,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G437"/>
+  <dimension ref="A1:G441"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31057,6 +31189,122 @@
         </is>
       </c>
     </row>
+    <row r="438">
+      <c r="A438" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-29 22:20:32+00:00</t>
+        </is>
+      </c>
+      <c r="B438" t="inlineStr"/>
+      <c r="C438" t="inlineStr"/>
+      <c r="D438" t="inlineStr"/>
+      <c r="E438" t="inlineStr"/>
+      <c r="F438" t="inlineStr">
+        <is>
+          <t>-46.60401337080126,169.4170819700441</t>
+        </is>
+      </c>
+      <c r="G438" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-07 22:20:30+00:00</t>
+        </is>
+      </c>
+      <c r="B439" t="inlineStr"/>
+      <c r="C439" t="inlineStr"/>
+      <c r="D439" t="inlineStr">
+        <is>
+          <t>-46.60376021940118,169.41885722429922</t>
+        </is>
+      </c>
+      <c r="E439" t="inlineStr">
+        <is>
+          <t>-46.60384856573948,169.41796590376248</t>
+        </is>
+      </c>
+      <c r="F439" t="inlineStr">
+        <is>
+          <t>-46.604201817152614,169.4171001778073</t>
+        </is>
+      </c>
+      <c r="G439" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-16 22:14:24+00:00</t>
+        </is>
+      </c>
+      <c r="B440" t="inlineStr"/>
+      <c r="C440" t="inlineStr">
+        <is>
+          <t>-46.60343049111506,169.4197252138241</t>
+        </is>
+      </c>
+      <c r="D440" t="inlineStr">
+        <is>
+          <t>-46.603673428083106,169.41884883658284</t>
+        </is>
+      </c>
+      <c r="E440" t="inlineStr">
+        <is>
+          <t>-46.60380684968544,169.4179618726916</t>
+        </is>
+      </c>
+      <c r="F440" t="inlineStr">
+        <is>
+          <t>-46.6041012116133,169.41709045724812</t>
+        </is>
+      </c>
+      <c r="G440" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:20:39+00:00</t>
+        </is>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>-46.60365104405474,169.4206463900475</t>
+        </is>
+      </c>
+      <c r="C441" t="inlineStr"/>
+      <c r="D441" t="inlineStr">
+        <is>
+          <t>-46.6038982960431,169.41887056838814</t>
+        </is>
+      </c>
+      <c r="E441" t="inlineStr">
+        <is>
+          <t>-46.60406360526629,169.41798668335127</t>
+        </is>
+      </c>
+      <c r="F441" t="inlineStr">
+        <is>
+          <t>-46.60433315543949,169.41711286781845</t>
+        </is>
+      </c>
+      <c r="G441" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0552/nzd0552.xlsx
+++ b/data/nzd0552/nzd0552.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G441"/>
+  <dimension ref="A1:G444"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11332,6 +11332,79 @@
       <c r="G441" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:14:39+00:00</t>
+        </is>
+      </c>
+      <c r="B442" t="n">
+        <v>360.6732432432432</v>
+      </c>
+      <c r="C442" t="n">
+        <v>354.6278260869565</v>
+      </c>
+      <c r="D442" t="n">
+        <v>341.8044444444445</v>
+      </c>
+      <c r="E442" t="n">
+        <v>343.46</v>
+      </c>
+      <c r="F442" t="n">
+        <v>361.8771428571428</v>
+      </c>
+      <c r="G442" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-02 22:14:47+00:00</t>
+        </is>
+      </c>
+      <c r="B443" t="inlineStr"/>
+      <c r="C443" t="inlineStr"/>
+      <c r="D443" t="n">
+        <v>327.1977777777778</v>
+      </c>
+      <c r="E443" t="n">
+        <v>326.35</v>
+      </c>
+      <c r="F443" t="inlineStr"/>
+      <c r="G443" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-10 22:15:08+00:00</t>
+        </is>
+      </c>
+      <c r="B444" t="n">
+        <v>363.3245945945946</v>
+      </c>
+      <c r="C444" t="n">
+        <v>352.6043478260869</v>
+      </c>
+      <c r="D444" t="n">
+        <v>339.9677777777778</v>
+      </c>
+      <c r="E444" t="n">
+        <v>344.93</v>
+      </c>
+      <c r="F444" t="inlineStr"/>
+      <c r="G444" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -11346,7 +11419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B513"/>
+  <dimension ref="A1:B516"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16484,6 +16557,36 @@
       </c>
       <c r="B513" t="n">
         <v>-0.24</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B514" t="n">
+        <v>-0.88</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>2025-09-02 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B515" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>2025-09-10 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B516" t="n">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>
@@ -16657,28 +16760,28 @@
         <v>0.2</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.7860268859277481</v>
+        <v>-0.7285254679340316</v>
       </c>
       <c r="J2" t="n">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="K2" t="n">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01562265348351377</v>
+        <v>0.01353653617292416</v>
       </c>
       <c r="M2" t="n">
-        <v>37.69681877768644</v>
+        <v>37.7042009349512</v>
       </c>
       <c r="N2" t="n">
-        <v>2196.612511227339</v>
+        <v>2196.673768624228</v>
       </c>
       <c r="O2" t="n">
-        <v>46.86803293533173</v>
+        <v>46.86868644014069</v>
       </c>
       <c r="P2" t="n">
-        <v>335.0606060864501</v>
+        <v>334.4807626230108</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -16729,28 +16832,28 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>-1.560088907997569</v>
+        <v>-1.507085663056523</v>
       </c>
       <c r="J3" t="n">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="K3" t="n">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="L3" t="n">
-        <v>0.05332415318213124</v>
+        <v>0.05021011917940399</v>
       </c>
       <c r="M3" t="n">
-        <v>34.71487914098949</v>
+        <v>34.6554746444433</v>
       </c>
       <c r="N3" t="n">
-        <v>2441.939970494551</v>
+        <v>2441.424843469373</v>
       </c>
       <c r="O3" t="n">
-        <v>49.41598901665888</v>
+        <v>49.41077659245372</v>
       </c>
       <c r="P3" t="n">
-        <v>345.3093332009686</v>
+        <v>344.7697288861827</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -16807,28 +16910,28 @@
         <v>0.0589</v>
       </c>
       <c r="I4" t="n">
-        <v>-1.646749613023114</v>
+        <v>-1.60037223916773</v>
       </c>
       <c r="J4" t="n">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="K4" t="n">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="L4" t="n">
-        <v>0.07982436356190825</v>
+        <v>0.07655723517913915</v>
       </c>
       <c r="M4" t="n">
-        <v>27.36489128558372</v>
+        <v>27.2261595927895</v>
       </c>
       <c r="N4" t="n">
-        <v>1798.972089525875</v>
+        <v>1791.479896701924</v>
       </c>
       <c r="O4" t="n">
-        <v>42.41429110012184</v>
+        <v>42.32587738844789</v>
       </c>
       <c r="P4" t="n">
-        <v>349.0879009487966</v>
+        <v>348.6206202982989</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -16879,28 +16982,28 @@
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>-1.410913363579829</v>
+        <v>-1.362094420782779</v>
       </c>
       <c r="J5" t="n">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="K5" t="n">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="L5" t="n">
-        <v>0.06599580782175563</v>
+        <v>0.06242093000271098</v>
       </c>
       <c r="M5" t="n">
-        <v>26.15106918321028</v>
+        <v>26.04922845406749</v>
       </c>
       <c r="N5" t="n">
-        <v>1650.009964712527</v>
+        <v>1645.186634983129</v>
       </c>
       <c r="O5" t="n">
-        <v>40.62031468012683</v>
+        <v>40.5609003226399</v>
       </c>
       <c r="P5" t="n">
-        <v>342.8713043419863</v>
+        <v>342.3902615821677</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -16957,28 +17060,28 @@
         <v>0.0407</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.08076076484713311</v>
+        <v>-0.08481334618455293</v>
       </c>
       <c r="J6" t="n">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="K6" t="n">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0008135572329566187</v>
+        <v>0.0009021170677112611</v>
       </c>
       <c r="M6" t="n">
-        <v>17.49579678780731</v>
+        <v>17.47090516634788</v>
       </c>
       <c r="N6" t="n">
-        <v>474.6093554010257</v>
+        <v>473.4236786594592</v>
       </c>
       <c r="O6" t="n">
-        <v>21.78553087260041</v>
+        <v>21.75830137348638</v>
       </c>
       <c r="P6" t="n">
-        <v>371.6565185399318</v>
+        <v>371.6954876287105</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -17016,7 +17119,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G441"/>
+  <dimension ref="A1:G444"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31305,6 +31408,101 @@
         </is>
       </c>
     </row>
+    <row r="442">
+      <c r="A442" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:14:39+00:00</t>
+        </is>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>-46.603762201984814,169.42065713515416</t>
+        </is>
+      </c>
+      <c r="C442" t="inlineStr">
+        <is>
+          <t>-46.60376810443428,169.41975784533486</t>
+        </is>
+      </c>
+      <c r="D442" t="inlineStr">
+        <is>
+          <t>-46.603713200376674,169.41885268026817</t>
+        </is>
+      </c>
+      <c r="E442" t="inlineStr">
+        <is>
+          <t>-46.60378818960098,169.4179600695473</t>
+        </is>
+      </c>
+      <c r="F442" t="inlineStr">
+        <is>
+          <t>-46.604013550225154,169.41708198738004</t>
+        </is>
+      </c>
+      <c r="G442" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-02 22:14:47+00:00</t>
+        </is>
+      </c>
+      <c r="B443" t="inlineStr"/>
+      <c r="C443" t="inlineStr"/>
+      <c r="D443" t="inlineStr">
+        <is>
+          <t>-46.60358216113503,169.41884001635137</t>
+        </is>
+      </c>
+      <c r="E443" t="inlineStr">
+        <is>
+          <t>-46.603634692462286,169.41794523698445</t>
+        </is>
+      </c>
+      <c r="F443" t="inlineStr"/>
+      <c r="G443" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-10 22:15:08+00:00</t>
+        </is>
+      </c>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t>-46.60378598776919,169.42065943441642</t>
+        </is>
+      </c>
+      <c r="C444" t="inlineStr">
+        <is>
+          <t>-46.603749951419395,169.41975609077508</t>
+        </is>
+      </c>
+      <c r="D444" t="inlineStr">
+        <is>
+          <t>-46.60369672328365,169.41885108788378</t>
+        </is>
+      </c>
+      <c r="E444" t="inlineStr">
+        <is>
+          <t>-46.60380137725682,169.41796134388474</t>
+        </is>
+      </c>
+      <c r="F444" t="inlineStr"/>
+      <c r="G444" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0552/nzd0552.xlsx
+++ b/data/nzd0552/nzd0552.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G444"/>
+  <dimension ref="A1:G445"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11403,6 +11403,31 @@
       </c>
       <c r="F444" t="inlineStr"/>
       <c r="G444" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-26 22:14:50+00:00</t>
+        </is>
+      </c>
+      <c r="B445" t="n">
+        <v>332.9824324324325</v>
+      </c>
+      <c r="C445" t="n">
+        <v>325.2782608695652</v>
+      </c>
+      <c r="D445" t="n">
+        <v>324.7955555555556</v>
+      </c>
+      <c r="E445" t="n">
+        <v>326.65</v>
+      </c>
+      <c r="F445" t="inlineStr"/>
+      <c r="G445" t="inlineStr">
         <is>
           <t>L8</t>
         </is>
@@ -11419,7 +11444,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B516"/>
+  <dimension ref="A1:B517"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16587,6 +16612,16 @@
       </c>
       <c r="B516" t="n">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>2025-09-26 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B517" t="n">
+        <v>-0.29</v>
       </c>
     </row>
   </sheetData>
@@ -17119,7 +17154,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G444"/>
+  <dimension ref="A1:G445"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31503,6 +31538,39 @@
         </is>
       </c>
     </row>
+    <row r="445">
+      <c r="A445" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-26 22:14:50+00:00</t>
+        </is>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>-46.60351378237572,169.42063312165857</t>
+        </is>
+      </c>
+      <c r="C445" t="inlineStr">
+        <is>
+          <t>-46.60350480380352,169.41973239638153</t>
+        </is>
+      </c>
+      <c r="D445" t="inlineStr">
+        <is>
+          <t>-46.603560610333034,169.4188379336392</t>
+        </is>
+      </c>
+      <c r="E445" t="inlineStr">
+        <is>
+          <t>-46.603637383820676,169.41794549705227</t>
+        </is>
+      </c>
+      <c r="F445" t="inlineStr"/>
+      <c r="G445" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0552/nzd0552.xlsx
+++ b/data/nzd0552/nzd0552.xlsx
@@ -16795,28 +16795,28 @@
         <v>0.2</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.7285254679340316</v>
+        <v>-0.7179366159726711</v>
       </c>
       <c r="J2" t="n">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="K2" t="n">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01353653617292416</v>
+        <v>0.0132294004489335</v>
       </c>
       <c r="M2" t="n">
-        <v>37.7042009349512</v>
+        <v>37.62862199121277</v>
       </c>
       <c r="N2" t="n">
-        <v>2196.673768624228</v>
+        <v>2190.549020639592</v>
       </c>
       <c r="O2" t="n">
-        <v>46.86868644014069</v>
+        <v>46.80330138611583</v>
       </c>
       <c r="P2" t="n">
-        <v>334.4807626230108</v>
+        <v>334.3736390600793</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -16867,28 +16867,28 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>-1.507085663056523</v>
+        <v>-1.496355747170251</v>
       </c>
       <c r="J3" t="n">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="K3" t="n">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="L3" t="n">
-        <v>0.05021011917940399</v>
+        <v>0.04977825641067968</v>
       </c>
       <c r="M3" t="n">
-        <v>34.6554746444433</v>
+        <v>34.5829639348562</v>
       </c>
       <c r="N3" t="n">
-        <v>2441.424843469373</v>
+        <v>2435.376472563104</v>
       </c>
       <c r="O3" t="n">
-        <v>49.41077659245372</v>
+        <v>49.34953366104997</v>
       </c>
       <c r="P3" t="n">
-        <v>344.7697288861827</v>
+        <v>344.6601215370265</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -16945,28 +16945,28 @@
         <v>0.0589</v>
       </c>
       <c r="I4" t="n">
-        <v>-1.60037223916773</v>
+        <v>-1.591172134301273</v>
       </c>
       <c r="J4" t="n">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="K4" t="n">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="L4" t="n">
-        <v>0.07655723517913915</v>
+        <v>0.07608669338339602</v>
       </c>
       <c r="M4" t="n">
-        <v>27.2261595927895</v>
+        <v>27.16802117266147</v>
       </c>
       <c r="N4" t="n">
-        <v>1791.479896701924</v>
+        <v>1787.27564509067</v>
       </c>
       <c r="O4" t="n">
-        <v>42.32587738844789</v>
+        <v>42.27618295317909</v>
       </c>
       <c r="P4" t="n">
-        <v>348.6206202982989</v>
+        <v>348.527598501258</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -17017,28 +17017,28 @@
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>-1.362094420782779</v>
+        <v>-1.352072459053588</v>
       </c>
       <c r="J5" t="n">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="K5" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="L5" t="n">
-        <v>0.06242093000271098</v>
+        <v>0.0618379313632571</v>
       </c>
       <c r="M5" t="n">
-        <v>26.04922845406749</v>
+        <v>26.00141885417231</v>
       </c>
       <c r="N5" t="n">
-        <v>1645.186634983129</v>
+        <v>1641.670191200572</v>
       </c>
       <c r="O5" t="n">
-        <v>40.5609003226399</v>
+        <v>40.51752943110638</v>
       </c>
       <c r="P5" t="n">
-        <v>342.3902615821677</v>
+        <v>342.2911700305935</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -17098,7 +17098,7 @@
         <v>-0.08481334618455293</v>
       </c>
       <c r="J6" t="n">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="K6" t="n">
         <v>351</v>

--- a/data/nzd0552/nzd0552.xlsx
+++ b/data/nzd0552/nzd0552.xlsx
@@ -16786,13 +16786,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.185</v>
+        <v>0.03</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0595</v>
+        <v>0.0244</v>
       </c>
       <c r="H2" t="n">
-        <v>0.2</v>
+        <v>0.0333</v>
       </c>
       <c r="I2" t="n">
         <v>-0.7179694743081486</v>
@@ -16863,9 +16863,15 @@
       <c r="E3" t="n">
         <v>0.2500000000022605</v>
       </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
+      <c r="F3" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.0237</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.0312</v>
+      </c>
       <c r="I3" t="n">
         <v>-1.496355054394619</v>
       </c>
@@ -16936,13 +16942,13 @@
         <v>0.5000000000045211</v>
       </c>
       <c r="F4" t="n">
-        <v>0.045</v>
+        <v>0.03</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0388</v>
+        <v>0.0249</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0589</v>
+        <v>0.0355</v>
       </c>
       <c r="I4" t="n">
         <v>-1.591193723990683</v>
@@ -17013,9 +17019,15 @@
       <c r="E5" t="n">
         <v>0.7499999999975127</v>
       </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
+      <c r="F5" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.0235</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.0309</v>
+      </c>
       <c r="I5" t="n">
         <v>-1.352072459053588</v>
       </c>
@@ -17089,10 +17101,10 @@
         <v>0.035</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0325</v>
+        <v>0.0292</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0407</v>
+        <v>0.0385</v>
       </c>
       <c r="I6" t="n">
         <v>-0.08481509000519286</v>
